--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2571,10 +2571,10 @@
     <t>Starting time with inclusive boundary</t>
   </si>
   <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
     <t>DateTime of the first prescribed dose.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
   </si>
   <si>
     <t>Period.start</t>
@@ -2596,10 +2596,10 @@
     <t>End time with inclusive boundary, if not ongoing</t>
   </si>
   <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
     <t>DateTime of the last prescribe dose. Not defined for endless prescription (at prescription time). The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
   </si>
   <si>
     <t>If the end of the period is missing, it means that the period is ongoing</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:43:48+00:00</t>
+    <t>2025-07-18T13:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:01:32+00:00</t>
+    <t>2025-07-18T13:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:25:27+00:00</t>
+    <t>2025-07-18T13:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:29:35+00:00</t>
+    <t>2025-07-18T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:32:21+00:00</t>
+    <t>2025-07-18T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:36:35+00:00</t>
+    <t>2025-07-18T14:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:10:10+00:00</t>
+    <t>2025-07-18T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:20:27+00:00</t>
+    <t>2025-07-18T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:22:51+00:00</t>
+    <t>2025-07-18T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:33:50+00:00</t>
+    <t>2025-07-21T08:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:56:18+00:00</t>
+    <t>2025-07-21T09:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:00:57+00:00</t>
+    <t>2025-07-21T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:13:17+00:00</t>
+    <t>2025-07-21T13:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:05:14+00:00</t>
+    <t>2025-07-21T13:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:09:46+00:00</t>
+    <t>2025-07-22T16:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
